--- a/API Spreadsheet.xlsx
+++ b/API Spreadsheet.xlsx
@@ -11,49 +11,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>stripeStatus</t>
-  </si>
-  <si>
-    <t>stripeCustomerEmail</t>
-  </si>
-  <si>
-    <t>stripeCurrency</t>
-  </si>
-  <si>
-    <t>stripeAmount</t>
-  </si>
-  <si>
-    <t>stripeCreated</t>
-  </si>
-  <si>
-    <t>stripeDescription</t>
-  </si>
-  <si>
-    <t>stripeFailureMessage</t>
-  </si>
-  <si>
-    <t>succeeded</t>
-  </si>
-  <si>
-    <t>usd</t>
-  </si>
-  <si>
-    <t>A pretend book.</t>
-  </si>
-  <si>
-    <t>bertrand.keller@gmail.com</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>PRDID</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>pt1350</t>
+  </si>
+  <si>
+    <t>pt2300h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -63,6 +45,12 @@
       <b/>
       <sz val="12.0"/>
       <color rgb="FF333333"/>
+      <name val="Monospace"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Monospace"/>
     </font>
     <font>
@@ -95,27 +83,30 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -153,112 +144,77 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C4" s="5">
         <v>100.0</v>
       </c>
-      <c r="E2" s="4">
-        <v>1.498241007E9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.500375581E9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.506475224E9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+      <c r="D4" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6">
-      <c r="C6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7">
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8">
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
